--- a/output/LSTM_prediction_result.xlsx
+++ b/output/LSTM_prediction_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stevenlee/Desktop/MQF/QF603/Project/latest data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6f9c8d5376da9b3/Documents/All Finance Topics/SMU MQF/QF603 QAFM/QF603_QAFM_Project/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{050CB740-112A-A643-8A5F-22C1D82AE842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{050CB740-112A-A643-8A5F-22C1D82AE842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A96750EF-89AD-4600-8D0D-AD29AA6BF396}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15060" xr2:uid="{11E3BA48-6C0E-7A44-89C5-BEC2660550EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{11E3BA48-6C0E-7A44-89C5-BEC2660550EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,12 +457,17 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -490,7 +495,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -504,7 +509,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -518,7 +523,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -532,7 +537,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -546,7 +551,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -560,7 +565,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -574,7 +579,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -588,7 +593,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -602,7 +607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -616,7 +621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -630,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -644,7 +649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -658,7 +663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -672,7 +677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -686,7 +691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -700,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -714,7 +719,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -728,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -742,7 +747,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -756,7 +761,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -770,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -784,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -798,7 +803,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -812,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -826,7 +831,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
